--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="baidu100" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,9 @@
     <sheet name="flickr100" sheetId="3" r:id="rId3"/>
     <sheet name="rmat24" sheetId="4" r:id="rId4"/>
     <sheet name="rmat26" sheetId="5" r:id="rId5"/>
+    <sheet name="hollywood-2009" sheetId="6" r:id="rId6"/>
+    <sheet name="roadNet-CA" sheetId="7" r:id="rId7"/>
+    <sheet name="soc-orkut" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
   <si>
     <t>baidu100_w_sorted_f</t>
   </si>
@@ -75,6 +78,30 @@
   <si>
     <t>SSSP update</t>
   </si>
+  <si>
+    <t>hollywood-2009_wp_sor</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>roadNet-CA_wp_sor</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>soc-orkut_wp_sor</t>
+  </si>
+  <si>
+    <t>50M</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -146,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +463,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C8" sqref="C8:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +526,7 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -506,8 +540,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>1000000</v>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -515,14 +549,14 @@
       <c r="E8">
         <v>74589</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f>E8/1000</f>
         <v>74.588999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>1000000</v>
+      <c r="C9" t="s">
+        <v>19</v>
       </c>
       <c r="D9">
         <v>75</v>
@@ -530,14 +564,14 @@
       <c r="E9">
         <v>135273</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" ref="F9:F17" si="0">E9/1000</f>
         <v>135.273</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>1000000</v>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -545,14 +579,14 @@
       <c r="E10">
         <v>165611</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>165.61099999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>1000000</v>
+      <c r="C11" t="s">
+        <v>19</v>
       </c>
       <c r="D11">
         <v>25</v>
@@ -560,14 +594,14 @@
       <c r="E11">
         <v>185366</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>185.36600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>1000000</v>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -575,14 +609,14 @@
       <c r="E12">
         <v>191480</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>191.48</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>10000000</v>
+      <c r="C13" t="s">
+        <v>20</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -590,14 +624,14 @@
       <c r="E13">
         <v>175649</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>175.649</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>10000000</v>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -605,14 +639,14 @@
       <c r="E14">
         <v>522944</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>522.94399999999996</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>10000000</v>
+      <c r="C15" t="s">
+        <v>20</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -620,14 +654,14 @@
       <c r="E15">
         <v>761570</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>761.57</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>10000000</v>
+      <c r="C16" t="s">
+        <v>20</v>
       </c>
       <c r="D16">
         <v>25</v>
@@ -635,14 +669,14 @@
       <c r="E16">
         <v>974741</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>974.74099999999999</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>10000000</v>
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -650,7 +684,7 @@
       <c r="E17">
         <v>1147970</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>1147.97</v>
       </c>
@@ -669,7 +703,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+      <selection activeCell="D7" sqref="D7:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,8 +780,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>1000000</v>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -766,8 +800,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>1000000</v>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1">
         <v>75</v>
@@ -786,8 +820,8 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <v>1000000</v>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="1">
         <v>50</v>
@@ -806,8 +840,8 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>1000000</v>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>25</v>
@@ -826,8 +860,8 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>1000000</v>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -846,8 +880,8 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>10000000</v>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
@@ -868,8 +902,8 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>10000000</v>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="1">
         <v>75</v>
@@ -888,8 +922,8 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <v>10000000</v>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
@@ -908,8 +942,8 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <v>10000000</v>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>25</v>
@@ -928,8 +962,8 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <v>10000000</v>
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -960,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1058,7 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1038,8 +1072,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>1000000</v>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -1047,7 +1081,7 @@
       <c r="F8">
         <v>109766</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f>F8/1000</f>
         <v>109.76600000000001</v>
       </c>
@@ -1056,8 +1090,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>1000000</v>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
       <c r="E9">
         <v>75</v>
@@ -1065,7 +1099,7 @@
       <c r="F9">
         <v>146236</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f t="shared" ref="G9:G17" si="0">F9/1000</f>
         <v>146.23599999999999</v>
       </c>
@@ -1074,8 +1108,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>1000000</v>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -1083,7 +1117,7 @@
       <c r="F10">
         <v>159922</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>159.922</v>
       </c>
@@ -1092,8 +1126,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>1000000</v>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -1101,7 +1135,7 @@
       <c r="F11">
         <v>165710</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>165.71</v>
       </c>
@@ -1110,8 +1144,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1000000</v>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1119,7 +1153,7 @@
       <c r="F12">
         <v>243807</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>243.80699999999999</v>
       </c>
@@ -1128,8 +1162,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>10000000</v>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1137,7 +1171,7 @@
       <c r="F13">
         <v>151429</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>151.429</v>
       </c>
@@ -1146,8 +1180,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>10000000</v>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
       <c r="E14">
         <v>75</v>
@@ -1155,7 +1189,7 @@
       <c r="F14">
         <v>362016</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>362.01600000000002</v>
       </c>
@@ -1164,8 +1198,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>10000000</v>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -1173,7 +1207,7 @@
       <c r="F15">
         <v>489735</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>489.73500000000001</v>
       </c>
@@ -1182,8 +1216,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>10000000</v>
+      <c r="D16" t="s">
+        <v>20</v>
       </c>
       <c r="E16">
         <v>25</v>
@@ -1191,7 +1225,7 @@
       <c r="F16">
         <v>561579</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>561.57899999999995</v>
       </c>
@@ -1200,8 +1234,8 @@
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>10000000</v>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1209,7 +1243,7 @@
       <c r="F17">
         <v>850421</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>850.42100000000005</v>
       </c>
@@ -1231,7 +1265,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:J5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1327,7 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1307,8 +1341,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>100000</v>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1316,14 +1350,14 @@
       <c r="F6">
         <v>423673</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f>F6/1000</f>
         <v>423.673</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>100000</v>
+      <c r="D7" t="s">
+        <v>18</v>
       </c>
       <c r="E7">
         <v>75</v>
@@ -1331,14 +1365,14 @@
       <c r="F7">
         <v>450158</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f t="shared" ref="G7:G15" si="0">F7/1000</f>
         <v>450.15800000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>100000</v>
+      <c r="D8" t="s">
+        <v>18</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -1346,14 +1380,14 @@
       <c r="F8">
         <v>460631</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>460.63099999999997</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>100000</v>
+      <c r="D9" t="s">
+        <v>18</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -1361,14 +1395,14 @@
       <c r="F9">
         <v>436166</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>436.166</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>100000</v>
+      <c r="D10" t="s">
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1376,14 +1410,14 @@
       <c r="F10">
         <v>461322</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>461.322</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>1000000</v>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1391,14 +1425,14 @@
       <c r="F11">
         <v>445610</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>445.61</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1000000</v>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
       <c r="E12">
         <v>75</v>
@@ -1406,14 +1440,14 @@
       <c r="F12">
         <v>479998</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>479.99799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>1000000</v>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -1421,14 +1455,14 @@
       <c r="F13">
         <v>485233</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>485.233</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>1000000</v>
+      <c r="D14" t="s">
+        <v>19</v>
       </c>
       <c r="E14">
         <v>25</v>
@@ -1436,14 +1470,14 @@
       <c r="F14">
         <v>488825</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>488.82499999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>1000000</v>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,7 +1485,7 @@
       <c r="F15">
         <v>487663</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>487.66300000000001</v>
       </c>
@@ -1470,7 +1504,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:J5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,8 +1581,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>1000000</v>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -1556,42 +1590,62 @@
       <c r="F6">
         <v>9098468</v>
       </c>
+      <c r="G6">
+        <f>F6/1000</f>
+        <v>9098.4680000000008</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>1000000</v>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
       <c r="E7">
         <v>75</v>
       </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G15" si="0">F7/1000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>1000000</v>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>1000000</v>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
       <c r="E9">
         <v>25</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>1000000</v>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>10000000</v>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1599,36 +1653,56 @@
       <c r="F11">
         <v>7631002</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>7631.0020000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>10000000</v>
+      <c r="D12" t="s">
+        <v>20</v>
       </c>
       <c r="E12">
         <v>75</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>10000000</v>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>10000000</v>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
       <c r="E14">
         <v>25</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>10000000</v>
+      <c r="D15" t="s">
+        <v>20</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1639,4 +1713,1099 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1069112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>29142494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>107315</v>
+      </c>
+      <c r="G8">
+        <f>F8/1000</f>
+        <v>107.315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>114278</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G22" si="0">F9/1000</f>
+        <v>114.27800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>100443</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100.443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>115997</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>115.997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>99542</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>99.542000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>107829</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>107.82899999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>135229</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>135.22900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>152937</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>152.93700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>162318</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>162.31800000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>155899</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>155.899</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>160541</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>160.541</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>277386</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>277.38600000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>371002</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>371.00200000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>454652</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>454.65199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>501730</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>501.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1971281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2766607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>63074</v>
+      </c>
+      <c r="G8">
+        <f>F8/1000</f>
+        <v>63.073999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>106629</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G22" si="0">F9/1000</f>
+        <v>106.629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>100132</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>100.13200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>95242</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>95.242000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>134003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>134.00299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>63761</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>63.761000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>97633</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>97.632999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>71863</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>71.863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>76355</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>76.355000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>159838</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>159.83799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>88693</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>88.692999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>116646</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>116.646</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>90754</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>90.754000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>73698</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>73.697999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>38964</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>38.963999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2997166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>106349209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>182160</v>
+      </c>
+      <c r="H7">
+        <f>G7/1000</f>
+        <v>182.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>228555</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H36" si="0">G8/1000</f>
+        <v>228.55500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>228126</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>228.126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>224842</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>224.84200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>228040</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>228.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>231997</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>231.99700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>284532</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>284.53199999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>298019</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>298.01900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>299511</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>299.51100000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>290800</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>290.8</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>237737</v>
+      </c>
+      <c r="H17">
+        <f>G17/1000</f>
+        <v>237.73699999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>345776</v>
+      </c>
+      <c r="H18">
+        <f>G18/1000</f>
+        <v>345.77600000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>394401</v>
+      </c>
+      <c r="H19">
+        <f>G19/1000</f>
+        <v>394.40100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>427479</v>
+      </c>
+      <c r="H20">
+        <f>G20/1000</f>
+        <v>427.47899999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>462291</v>
+      </c>
+      <c r="H21">
+        <f>G21/1000</f>
+        <v>462.291</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>258691</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>258.69099999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>414989</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>414.98899999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>500598</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>500.59800000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>564717</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>564.71699999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>632768</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>632.76800000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>447628</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>447.62799999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>75</v>
+      </c>
+      <c r="G28">
+        <v>1276851</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1276.8510000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>1441972</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1441.972</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>1690751</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1690.751</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2033065</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2033.0650000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,21 +165,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,15 +522,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -526,7 +542,7 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -549,7 +565,7 @@
       <c r="E8">
         <v>74589</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f>E8/1000</f>
         <v>74.588999999999999</v>
       </c>
@@ -564,7 +580,7 @@
       <c r="E9">
         <v>135273</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" ref="F9:F17" si="0">E9/1000</f>
         <v>135.273</v>
       </c>
@@ -579,7 +595,7 @@
       <c r="E10">
         <v>165611</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>165.61099999999999</v>
       </c>
@@ -594,7 +610,7 @@
       <c r="E11">
         <v>185366</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>185.36600000000001</v>
       </c>
@@ -609,7 +625,7 @@
       <c r="E12">
         <v>191480</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>191.48</v>
       </c>
@@ -624,7 +640,7 @@
       <c r="E13">
         <v>175649</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>175.649</v>
       </c>
@@ -639,7 +655,7 @@
       <c r="E14">
         <v>522944</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>522.94399999999996</v>
       </c>
@@ -654,7 +670,7 @@
       <c r="E15">
         <v>761570</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>761.57</v>
       </c>
@@ -669,7 +685,7 @@
       <c r="E16">
         <v>974741</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>974.74099999999999</v>
       </c>
@@ -684,7 +700,7 @@
       <c r="E17">
         <v>1147970</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>1147.97</v>
       </c>
@@ -746,15 +762,15 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1038,15 +1054,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1058,7 +1074,7 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1081,7 +1097,7 @@
       <c r="F8">
         <v>109766</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <f>F8/1000</f>
         <v>109.76600000000001</v>
       </c>
@@ -1099,7 +1115,7 @@
       <c r="F9">
         <v>146236</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f t="shared" ref="G9:G17" si="0">F9/1000</f>
         <v>146.23599999999999</v>
       </c>
@@ -1117,7 +1133,7 @@
       <c r="F10">
         <v>159922</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>159.922</v>
       </c>
@@ -1135,7 +1151,7 @@
       <c r="F11">
         <v>165710</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>165.71</v>
       </c>
@@ -1153,7 +1169,7 @@
       <c r="F12">
         <v>243807</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>243.80699999999999</v>
       </c>
@@ -1171,7 +1187,7 @@
       <c r="F13">
         <v>151429</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>151.429</v>
       </c>
@@ -1189,7 +1205,7 @@
       <c r="F14">
         <v>362016</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>362.01600000000002</v>
       </c>
@@ -1207,7 +1223,7 @@
       <c r="F15">
         <v>489735</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>489.73500000000001</v>
       </c>
@@ -1225,7 +1241,7 @@
       <c r="F16">
         <v>561579</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <f t="shared" si="0"/>
         <v>561.57899999999995</v>
       </c>
@@ -1243,7 +1259,7 @@
       <c r="F17">
         <v>850421</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
         <v>850.42100000000005</v>
       </c>
@@ -1307,15 +1323,15 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1327,7 +1343,7 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1350,7 +1366,7 @@
       <c r="F6">
         <v>423673</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <f>F6/1000</f>
         <v>423.673</v>
       </c>
@@ -1365,7 +1381,7 @@
       <c r="F7">
         <v>450158</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <f t="shared" ref="G7:G15" si="0">F7/1000</f>
         <v>450.15800000000002</v>
       </c>
@@ -1380,7 +1396,7 @@
       <c r="F8">
         <v>460631</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>460.63099999999997</v>
       </c>
@@ -1395,7 +1411,7 @@
       <c r="F9">
         <v>436166</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>436.166</v>
       </c>
@@ -1410,7 +1426,7 @@
       <c r="F10">
         <v>461322</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>461.322</v>
       </c>
@@ -1425,7 +1441,7 @@
       <c r="F11">
         <v>445610</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>445.61</v>
       </c>
@@ -1440,7 +1456,7 @@
       <c r="F12">
         <v>479998</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
         <v>479.99799999999999</v>
       </c>
@@ -1455,7 +1471,7 @@
       <c r="F13">
         <v>485233</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>485.233</v>
       </c>
@@ -1470,7 +1486,7 @@
       <c r="F14">
         <v>488825</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
         <v>488.82499999999999</v>
       </c>
@@ -1485,7 +1501,7 @@
       <c r="F15">
         <v>487663</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>487.66300000000001</v>
       </c>
@@ -1547,15 +1563,15 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1763,15 +1779,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1783,7 +1799,7 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2078,15 +2094,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -2098,7 +2114,7 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2349,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,15 +2409,15 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
@@ -2413,16 +2429,16 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2436,9 +2452,16 @@
       <c r="G7">
         <v>182160</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <f>G7/1000</f>
         <v>182.16</v>
+      </c>
+      <c r="I7">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K7" s="7">
+        <f>I7+J7</f>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2451,9 +2474,16 @@
       <c r="G8">
         <v>228555</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H36" si="0">G8/1000</f>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H31" si="0">G8/1000</f>
         <v>228.55500000000001</v>
+      </c>
+      <c r="I8">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" ref="K8:K31" si="1">I8+J8</f>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2466,9 +2496,16 @@
       <c r="G9">
         <v>228126</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>228.126</v>
+      </c>
+      <c r="I9">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2481,9 +2518,16 @@
       <c r="G10">
         <v>224842</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>224.84200000000001</v>
+      </c>
+      <c r="I10">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2496,9 +2540,16 @@
       <c r="G11">
         <v>228040</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>228.04</v>
+      </c>
+      <c r="I11">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2511,9 +2562,19 @@
       <c r="G12">
         <v>231997</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>231.99700000000001</v>
+      </c>
+      <c r="I12">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="J12">
+        <v>693.95279900000003</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="1"/>
+        <v>1361.957789</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2526,9 +2587,16 @@
       <c r="G13">
         <v>284532</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>284.53199999999998</v>
+      </c>
+      <c r="I13">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2541,9 +2609,16 @@
       <c r="G14">
         <v>298019</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>298.01900000000001</v>
+      </c>
+      <c r="I14">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2556,9 +2631,16 @@
       <c r="G15">
         <v>299511</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>299.51100000000002</v>
+      </c>
+      <c r="I15">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,12 +2653,19 @@
       <c r="G16">
         <v>290800</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <f t="shared" si="0"/>
         <v>290.8</v>
       </c>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>22</v>
       </c>
@@ -2586,12 +2675,22 @@
       <c r="G17">
         <v>237737</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <f>G17/1000</f>
         <v>237.73699999999999</v>
       </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="J17">
+        <v>711.13109599999996</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="1"/>
+        <v>1379.136086</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>22</v>
       </c>
@@ -2601,12 +2700,19 @@
       <c r="G18">
         <v>345776</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <f>G18/1000</f>
         <v>345.77600000000001</v>
       </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>22</v>
       </c>
@@ -2616,12 +2722,19 @@
       <c r="G19">
         <v>394401</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <f>G19/1000</f>
         <v>394.40100000000001</v>
       </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -2631,12 +2744,19 @@
       <c r="G20">
         <v>427479</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <f>G20/1000</f>
         <v>427.47899999999998</v>
       </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>22</v>
       </c>
@@ -2646,12 +2766,19 @@
       <c r="G21">
         <v>462291</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <f>G21/1000</f>
         <v>462.291</v>
       </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>20</v>
       </c>
@@ -2661,12 +2788,22 @@
       <c r="G22">
         <v>258691</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <f t="shared" si="0"/>
         <v>258.69099999999997</v>
       </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="J22">
+        <v>743.09015299999999</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="1"/>
+        <v>1411.095143</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>20</v>
       </c>
@@ -2676,12 +2813,19 @@
       <c r="G23">
         <v>414989</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>414.98899999999998</v>
       </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>20</v>
       </c>
@@ -2691,12 +2835,19 @@
       <c r="G24">
         <v>500598</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <f t="shared" si="0"/>
         <v>500.59800000000001</v>
       </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>20</v>
       </c>
@@ -2706,12 +2857,19 @@
       <c r="G25">
         <v>564717</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <f t="shared" si="0"/>
         <v>564.71699999999998</v>
       </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>20</v>
       </c>
@@ -2721,12 +2879,19 @@
       <c r="G26">
         <v>632768</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <f t="shared" si="0"/>
         <v>632.76800000000003</v>
       </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>24</v>
       </c>
@@ -2736,12 +2901,22 @@
       <c r="G27">
         <v>447628</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <f t="shared" si="0"/>
         <v>447.62799999999999</v>
       </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="J27">
+        <v>944.73505</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="1"/>
+        <v>1612.7400400000001</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>24</v>
       </c>
@@ -2751,12 +2926,19 @@
       <c r="G28">
         <v>1276851</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <f t="shared" si="0"/>
         <v>1276.8510000000001</v>
       </c>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -2766,12 +2948,19 @@
       <c r="G29">
         <v>1441972</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <f t="shared" si="0"/>
         <v>1441.972</v>
       </c>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>24</v>
       </c>
@@ -2781,12 +2970,19 @@
       <c r="G30">
         <v>1690751</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <f t="shared" si="0"/>
         <v>1690.751</v>
       </c>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>24</v>
       </c>
@@ -2796,9 +2992,16 @@
       <c r="G31">
         <v>2033065</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <f t="shared" si="0"/>
         <v>2033.0650000000001</v>
+      </c>
+      <c r="I31">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="K31" s="7">
+        <f t="shared" si="1"/>
+        <v>668.00499000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -187,15 +187,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,15 +522,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -762,15 +762,15 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1054,15 +1054,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1323,15 +1323,15 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1563,15 +1563,15 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1735,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1779,15 +1779,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -2051,7 +2051,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C13" sqref="C13:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,15 +2094,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -2365,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,15 +2409,15 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
@@ -2429,16 +2429,16 @@
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2452,14 +2452,14 @@
       <c r="G7">
         <v>182160</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <f>G7/1000</f>
         <v>182.16</v>
       </c>
       <c r="I7">
         <v>668.00499000000002</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f>I7+J7</f>
         <v>668.00499000000002</v>
       </c>
@@ -2474,14 +2474,14 @@
       <c r="G8">
         <v>228555</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <f t="shared" ref="H8:H31" si="0">G8/1000</f>
         <v>228.55500000000001</v>
       </c>
       <c r="I8">
         <v>668.00499000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <f t="shared" ref="K8:K31" si="1">I8+J8</f>
         <v>668.00499000000002</v>
       </c>
@@ -2496,14 +2496,14 @@
       <c r="G9">
         <v>228126</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>228.126</v>
       </c>
       <c r="I9">
         <v>668.00499000000002</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f t="shared" si="1"/>
         <v>668.00499000000002</v>
       </c>
@@ -2518,14 +2518,14 @@
       <c r="G10">
         <v>224842</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>224.84200000000001</v>
       </c>
       <c r="I10">
         <v>668.00499000000002</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
         <v>668.00499000000002</v>
       </c>
@@ -2540,14 +2540,14 @@
       <c r="G11">
         <v>228040</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>228.04</v>
       </c>
       <c r="I11">
         <v>668.00499000000002</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <f t="shared" si="1"/>
         <v>668.00499000000002</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="G12">
         <v>231997</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>231.99700000000001</v>
       </c>
@@ -2572,7 +2572,7 @@
       <c r="J12">
         <v>693.95279900000003</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <f t="shared" si="1"/>
         <v>1361.957789</v>
       </c>
@@ -2587,16 +2587,19 @@
       <c r="G13">
         <v>284532</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>284.53199999999998</v>
       </c>
       <c r="I13">
         <v>668.00499000000002</v>
       </c>
-      <c r="K13" s="7">
+      <c r="J13">
+        <v>713.58394599999997</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1381.5889360000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,16 +2612,19 @@
       <c r="G14">
         <v>298019</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>298.01900000000001</v>
       </c>
       <c r="I14">
         <v>668.00499000000002</v>
       </c>
-      <c r="K14" s="7">
+      <c r="J14">
+        <v>669.58308199999999</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1337.588072</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2631,16 +2637,19 @@
       <c r="G15">
         <v>299511</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>299.51100000000002</v>
       </c>
       <c r="I15">
         <v>668.00499000000002</v>
       </c>
-      <c r="K15" s="7">
+      <c r="J15">
+        <v>678.76505899999995</v>
+      </c>
+      <c r="K15" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1346.770049</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2653,16 +2662,19 @@
       <c r="G16">
         <v>290800</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>290.8</v>
       </c>
       <c r="I16">
         <v>668.00499000000002</v>
       </c>
-      <c r="K16" s="7">
+      <c r="J16">
+        <v>661.39817200000005</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1329.4031620000001</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
@@ -2675,7 +2687,7 @@
       <c r="G17">
         <v>237737</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <f>G17/1000</f>
         <v>237.73699999999999</v>
       </c>
@@ -2685,7 +2697,7 @@
       <c r="J17">
         <v>711.13109599999996</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="5">
         <f t="shared" si="1"/>
         <v>1379.136086</v>
       </c>
@@ -2700,16 +2712,19 @@
       <c r="G18">
         <v>345776</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <f>G18/1000</f>
         <v>345.77600000000001</v>
       </c>
       <c r="I18">
         <v>668.00499000000002</v>
       </c>
-      <c r="K18" s="7">
+      <c r="J18">
+        <v>698.95195999999999</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1366.95695</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
@@ -2722,16 +2737,19 @@
       <c r="G19">
         <v>394401</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <f>G19/1000</f>
         <v>394.40100000000001</v>
       </c>
       <c r="I19">
         <v>668.00499000000002</v>
       </c>
-      <c r="K19" s="7">
+      <c r="J19">
+        <v>706.68697399999996</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1374.6919640000001</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
@@ -2744,16 +2762,19 @@
       <c r="G20">
         <v>427479</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="4">
         <f>G20/1000</f>
         <v>427.47899999999998</v>
       </c>
       <c r="I20">
         <v>668.00499000000002</v>
       </c>
-      <c r="K20" s="7">
+      <c r="J20">
+        <v>694.23413300000004</v>
+      </c>
+      <c r="K20" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1362.2391230000001</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
@@ -2766,16 +2787,19 @@
       <c r="G21">
         <v>462291</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <f>G21/1000</f>
         <v>462.291</v>
       </c>
       <c r="I21">
         <v>668.00499000000002</v>
       </c>
-      <c r="K21" s="7">
+      <c r="J21">
+        <v>684.23390400000005</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1352.2388940000001</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.25">
@@ -2788,7 +2812,7 @@
       <c r="G22">
         <v>258691</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="4">
         <f t="shared" si="0"/>
         <v>258.69099999999997</v>
       </c>
@@ -2798,7 +2822,7 @@
       <c r="J22">
         <v>743.09015299999999</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>1411.095143</v>
       </c>
@@ -2813,16 +2837,19 @@
       <c r="G23">
         <v>414989</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <f t="shared" si="0"/>
         <v>414.98899999999998</v>
       </c>
       <c r="I23">
         <v>668.00499000000002</v>
       </c>
-      <c r="K23" s="7">
+      <c r="J23">
+        <v>722.69701999999995</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1390.70201</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
@@ -2835,16 +2862,19 @@
       <c r="G24">
         <v>500598</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="4">
         <f t="shared" si="0"/>
         <v>500.59800000000001</v>
       </c>
       <c r="I24">
         <v>668.00499000000002</v>
       </c>
-      <c r="K24" s="7">
+      <c r="J24">
+        <v>695.26290900000004</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1363.2678989999999</v>
       </c>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
@@ -2857,16 +2887,19 @@
       <c r="G25">
         <v>564717</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="4">
         <f t="shared" si="0"/>
         <v>564.71699999999998</v>
       </c>
       <c r="I25">
         <v>668.00499000000002</v>
       </c>
-      <c r="K25" s="7">
+      <c r="J25">
+        <v>685.499191</v>
+      </c>
+      <c r="K25" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1353.504181</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
@@ -2879,16 +2912,19 @@
       <c r="G26">
         <v>632768</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <f t="shared" si="0"/>
         <v>632.76800000000003</v>
       </c>
       <c r="I26">
         <v>668.00499000000002</v>
       </c>
-      <c r="K26" s="7">
+      <c r="J26">
+        <v>669.27290000000005</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1337.2778900000001</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.25">
@@ -2901,7 +2937,7 @@
       <c r="G27">
         <v>447628</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <f t="shared" si="0"/>
         <v>447.62799999999999</v>
       </c>
@@ -2911,7 +2947,7 @@
       <c r="J27">
         <v>944.73505</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <f t="shared" si="1"/>
         <v>1612.7400400000001</v>
       </c>
@@ -2926,16 +2962,19 @@
       <c r="G28">
         <v>1276851</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <f t="shared" si="0"/>
         <v>1276.8510000000001</v>
       </c>
       <c r="I28">
         <v>668.00499000000002</v>
       </c>
-      <c r="K28" s="7">
+      <c r="J28">
+        <v>851.50098800000001</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1519.5059780000001</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
@@ -2948,16 +2987,19 @@
       <c r="G29">
         <v>1441972</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="4">
         <f t="shared" si="0"/>
         <v>1441.972</v>
       </c>
       <c r="I29">
         <v>668.00499000000002</v>
       </c>
-      <c r="K29" s="7">
+      <c r="J29">
+        <v>806.025982</v>
+      </c>
+      <c r="K29" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1474.030972</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
@@ -2970,16 +3012,19 @@
       <c r="G30">
         <v>1690751</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="4">
         <f t="shared" si="0"/>
         <v>1690.751</v>
       </c>
       <c r="I30">
         <v>668.00499000000002</v>
       </c>
-      <c r="K30" s="7">
+      <c r="J30">
+        <v>728.60503200000005</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1396.6100220000001</v>
       </c>
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
@@ -2992,16 +3037,19 @@
       <c r="G31">
         <v>2033065</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="4">
         <f t="shared" si="0"/>
         <v>2033.0650000000001</v>
       </c>
       <c r="I31">
         <v>668.00499000000002</v>
       </c>
-      <c r="K31" s="7">
+      <c r="J31">
+        <v>701.40504799999997</v>
+      </c>
+      <c r="K31" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1369.410038</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="baidu100" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="26">
   <si>
     <t>baidu100_w_sorted_f</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>50M</t>
+  </si>
+  <si>
+    <t>old result</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1736,7 +1739,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,6 +1829,9 @@
         <f>F8/1000</f>
         <v>107.315</v>
       </c>
+      <c r="I8">
+        <v>426.31506899999999</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
@@ -1841,6 +1847,9 @@
         <f t="shared" ref="G9:G22" si="0">F9/1000</f>
         <v>114.27800000000001</v>
       </c>
+      <c r="I9">
+        <v>419.620991</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -1856,6 +1865,9 @@
         <f t="shared" si="0"/>
         <v>100.443</v>
       </c>
+      <c r="I10">
+        <v>431.43105500000001</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
@@ -1871,6 +1883,9 @@
         <f t="shared" si="0"/>
         <v>115.997</v>
       </c>
+      <c r="I11">
+        <v>418.57385599999998</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
@@ -1886,6 +1901,9 @@
         <f t="shared" si="0"/>
         <v>99.542000000000002</v>
       </c>
+      <c r="I12">
+        <v>427.36911800000001</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -1901,6 +1919,9 @@
         <f t="shared" si="0"/>
         <v>107.82899999999999</v>
       </c>
+      <c r="I13">
+        <v>429.038048</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -1916,6 +1937,9 @@
         <f t="shared" si="0"/>
         <v>135.22900000000001</v>
       </c>
+      <c r="I14">
+        <v>427.159786</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -1931,6 +1955,9 @@
         <f t="shared" si="0"/>
         <v>152.93700000000001</v>
       </c>
+      <c r="I15">
+        <v>426.05495500000001</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -1946,8 +1973,11 @@
         <f t="shared" si="0"/>
         <v>162.31800000000001</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>424.33404899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -1961,8 +1991,11 @@
         <f t="shared" si="0"/>
         <v>155.899</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>420.593977</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>20</v>
       </c>
@@ -1976,8 +2009,11 @@
         <f t="shared" si="0"/>
         <v>160.541</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>473.78492399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>20</v>
       </c>
@@ -1991,8 +2027,11 @@
         <f t="shared" si="0"/>
         <v>277.38600000000002</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>461.03119900000002</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>20</v>
       </c>
@@ -2006,8 +2045,11 @@
         <f t="shared" si="0"/>
         <v>371.00200000000001</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>431.04291000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -2021,8 +2063,11 @@
         <f t="shared" si="0"/>
         <v>454.65199999999999</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>408.66112700000002</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>20</v>
       </c>
@@ -2035,6 +2080,9 @@
       <c r="G22">
         <f t="shared" si="0"/>
         <v>501.73</v>
+      </c>
+      <c r="I22">
+        <v>406.934977</v>
       </c>
     </row>
   </sheetData>
@@ -2050,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,7 +2430,7 @@
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2398,7 +2446,7 @@
         <v>2997166</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2454,7 @@
         <v>106349209</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="7" t="s">
@@ -2418,8 +2466,11 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -2464,7 +2515,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -2486,7 +2537,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -2508,7 +2559,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>18</v>
       </c>
@@ -2530,7 +2581,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>18</v>
       </c>
@@ -2552,7 +2603,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -2569,15 +2620,15 @@
       <c r="I12">
         <v>668.00499000000002</v>
       </c>
-      <c r="J12">
-        <v>693.95279900000003</v>
-      </c>
       <c r="K12" s="5">
         <f t="shared" si="1"/>
-        <v>1361.957789</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L12">
+        <v>693.95279900000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -2594,15 +2645,15 @@
       <c r="I13">
         <v>668.00499000000002</v>
       </c>
-      <c r="J13">
-        <v>713.58394599999997</v>
-      </c>
       <c r="K13" s="5">
         <f t="shared" si="1"/>
-        <v>1381.5889360000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L13">
+        <v>713.58394599999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -2619,15 +2670,15 @@
       <c r="I14">
         <v>668.00499000000002</v>
       </c>
-      <c r="J14">
-        <v>669.58308199999999</v>
-      </c>
       <c r="K14" s="5">
         <f t="shared" si="1"/>
-        <v>1337.588072</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L14">
+        <v>669.58308199999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>19</v>
       </c>
@@ -2644,15 +2695,15 @@
       <c r="I15">
         <v>668.00499000000002</v>
       </c>
-      <c r="J15">
-        <v>678.76505899999995</v>
-      </c>
       <c r="K15" s="5">
         <f t="shared" si="1"/>
-        <v>1346.770049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L15">
+        <v>678.76505899999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -2669,15 +2720,15 @@
       <c r="I16">
         <v>668.00499000000002</v>
       </c>
-      <c r="J16">
-        <v>661.39817200000005</v>
-      </c>
       <c r="K16" s="5">
         <f t="shared" si="1"/>
-        <v>1329.4031620000001</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L16">
+        <v>661.39817200000005</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>22</v>
       </c>
@@ -2694,15 +2745,15 @@
       <c r="I17">
         <v>668.00499000000002</v>
       </c>
-      <c r="J17">
-        <v>711.13109599999996</v>
-      </c>
       <c r="K17" s="5">
         <f t="shared" si="1"/>
-        <v>1379.136086</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L17">
+        <v>711.13109599999996</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>22</v>
       </c>
@@ -2719,15 +2770,15 @@
       <c r="I18">
         <v>668.00499000000002</v>
       </c>
-      <c r="J18">
-        <v>698.95195999999999</v>
-      </c>
       <c r="K18" s="5">
         <f t="shared" si="1"/>
-        <v>1366.95695</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L18">
+        <v>698.95195999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>22</v>
       </c>
@@ -2744,15 +2795,15 @@
       <c r="I19">
         <v>668.00499000000002</v>
       </c>
-      <c r="J19">
-        <v>706.68697399999996</v>
-      </c>
       <c r="K19" s="5">
         <f t="shared" si="1"/>
-        <v>1374.6919640000001</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L19">
+        <v>706.68697399999996</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -2769,15 +2820,15 @@
       <c r="I20">
         <v>668.00499000000002</v>
       </c>
-      <c r="J20">
-        <v>694.23413300000004</v>
-      </c>
       <c r="K20" s="5">
         <f t="shared" si="1"/>
-        <v>1362.2391230000001</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L20">
+        <v>694.23413300000004</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>22</v>
       </c>
@@ -2794,15 +2845,15 @@
       <c r="I21">
         <v>668.00499000000002</v>
       </c>
-      <c r="J21">
-        <v>684.23390400000005</v>
-      </c>
       <c r="K21" s="5">
         <f t="shared" si="1"/>
-        <v>1352.2388940000001</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L21">
+        <v>684.23390400000005</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>20</v>
       </c>
@@ -2819,15 +2870,15 @@
       <c r="I22">
         <v>668.00499000000002</v>
       </c>
-      <c r="J22">
-        <v>743.09015299999999</v>
-      </c>
       <c r="K22" s="5">
         <f t="shared" si="1"/>
-        <v>1411.095143</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L22">
+        <v>743.09015299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>20</v>
       </c>
@@ -2844,15 +2895,15 @@
       <c r="I23">
         <v>668.00499000000002</v>
       </c>
-      <c r="J23">
-        <v>722.69701999999995</v>
-      </c>
       <c r="K23" s="5">
         <f t="shared" si="1"/>
-        <v>1390.70201</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L23">
+        <v>722.69701999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>20</v>
       </c>
@@ -2869,15 +2920,15 @@
       <c r="I24">
         <v>668.00499000000002</v>
       </c>
-      <c r="J24">
-        <v>695.26290900000004</v>
-      </c>
       <c r="K24" s="5">
         <f t="shared" si="1"/>
-        <v>1363.2678989999999</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L24">
+        <v>695.26290900000004</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>20</v>
       </c>
@@ -2894,15 +2945,15 @@
       <c r="I25">
         <v>668.00499000000002</v>
       </c>
-      <c r="J25">
-        <v>685.499191</v>
-      </c>
       <c r="K25" s="5">
         <f t="shared" si="1"/>
-        <v>1353.504181</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L25">
+        <v>685.499191</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>20</v>
       </c>
@@ -2919,15 +2970,15 @@
       <c r="I26">
         <v>668.00499000000002</v>
       </c>
-      <c r="J26">
-        <v>669.27290000000005</v>
-      </c>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>1337.2778900000001</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L26">
+        <v>669.27290000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>24</v>
       </c>
@@ -2944,15 +2995,15 @@
       <c r="I27">
         <v>668.00499000000002</v>
       </c>
-      <c r="J27">
-        <v>944.73505</v>
-      </c>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
-        <v>1612.7400400000001</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L27">
+        <v>944.73505</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>24</v>
       </c>
@@ -2969,15 +3020,15 @@
       <c r="I28">
         <v>668.00499000000002</v>
       </c>
-      <c r="J28">
-        <v>851.50098800000001</v>
-      </c>
       <c r="K28" s="5">
         <f t="shared" si="1"/>
-        <v>1519.5059780000001</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L28">
+        <v>851.50098800000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -2994,15 +3045,15 @@
       <c r="I29">
         <v>668.00499000000002</v>
       </c>
-      <c r="J29">
-        <v>806.025982</v>
-      </c>
       <c r="K29" s="5">
         <f t="shared" si="1"/>
-        <v>1474.030972</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L29">
+        <v>806.025982</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>24</v>
       </c>
@@ -3019,15 +3070,15 @@
       <c r="I30">
         <v>668.00499000000002</v>
       </c>
-      <c r="J30">
-        <v>728.60503200000005</v>
-      </c>
       <c r="K30" s="5">
         <f t="shared" si="1"/>
-        <v>1396.6100220000001</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L30">
+        <v>728.60503200000005</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>24</v>
       </c>
@@ -3044,12 +3095,12 @@
       <c r="I31">
         <v>668.00499000000002</v>
       </c>
-      <c r="J31">
-        <v>701.40504799999997</v>
-      </c>
       <c r="K31" s="5">
         <f t="shared" si="1"/>
-        <v>1369.410038</v>
+        <v>668.00499000000002</v>
+      </c>
+      <c r="L31">
+        <v>701.40504799999997</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="baidu100" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="28">
   <si>
     <t>baidu100_w_sorted_f</t>
   </si>
@@ -105,6 +105,13 @@
   <si>
     <t>old result</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.254154Fewer than 5 vertices visited.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +148,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -198,6 +211,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +502,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1034,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,20 +1836,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>107315</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <f>F8/1000</f>
         <v>107.315</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
         <v>426.31506899999999</v>
       </c>
     </row>
@@ -1906,20 +1927,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>107829</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>107.82899999999999</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
         <v>429.038048</v>
       </c>
     </row>
@@ -1996,20 +2018,21 @@
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>160541</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>160.541</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
         <v>473.78492399999999</v>
       </c>
     </row>
@@ -2096,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2138,7 @@
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2131,7 +2154,7 @@
         <v>1971281</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2139,7 +2162,7 @@
         <v>2766607</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="7" t="s">
@@ -2152,7 +2175,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -2174,23 +2197,33 @@
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+      <c r="K7" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>100</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <v>63074</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="9">
         <f>F8/1000</f>
         <v>63.073999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
+        <v>272.40705500000001</v>
+      </c>
+      <c r="K8" s="9">
+        <v>514.63389400000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>18</v>
       </c>
@@ -2204,8 +2237,14 @@
         <f t="shared" ref="G9:G22" si="0">F9/1000</f>
         <v>106.629</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>273.57792899999998</v>
+      </c>
+      <c r="K9">
+        <v>805.67097699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>18</v>
       </c>
@@ -2219,8 +2258,14 @@
         <f t="shared" si="0"/>
         <v>100.13200000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>271.403074</v>
+      </c>
+      <c r="K10">
+        <v>718.445063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>18</v>
       </c>
@@ -2234,8 +2279,14 @@
         <f t="shared" si="0"/>
         <v>95.242000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>276.088953</v>
+      </c>
+      <c r="K11">
+        <v>3052.7548790000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>18</v>
       </c>
@@ -2249,23 +2300,36 @@
         <f t="shared" si="0"/>
         <v>134.00299999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
+      <c r="I12">
+        <v>303.77697899999998</v>
+      </c>
+      <c r="K12">
+        <v>589.39290000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="9">
         <v>63761</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>63.761000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9">
+        <v>277.49609900000002</v>
+      </c>
+      <c r="K13" s="9">
+        <v>893.07808899999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -2279,8 +2343,14 @@
         <f t="shared" si="0"/>
         <v>97.632999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>285.95495199999999</v>
+      </c>
+      <c r="K14">
+        <v>1916.257143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>19</v>
       </c>
@@ -2294,8 +2364,14 @@
         <f t="shared" si="0"/>
         <v>71.863</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>274.09482000000003</v>
+      </c>
+      <c r="K15">
+        <v>2502.4468900000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>
@@ -2309,8 +2385,14 @@
         <f t="shared" si="0"/>
         <v>76.355000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>279.68096700000001</v>
+      </c>
+      <c r="K16">
+        <v>1184.25107</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>19</v>
       </c>
@@ -2324,23 +2406,36 @@
         <f t="shared" si="0"/>
         <v>159.83799999999999</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="I17">
+        <v>410.38179400000001</v>
+      </c>
+      <c r="K17">
+        <v>567.16203700000005</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="9">
         <v>100</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="9">
         <v>88693</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>88.692999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
+        <v>298.52294899999998</v>
+      </c>
+      <c r="K18" s="9">
+        <v>588.80710599999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>22</v>
       </c>
@@ -2354,8 +2449,14 @@
         <f t="shared" si="0"/>
         <v>116.646</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>301.52010899999999</v>
+      </c>
+      <c r="K19">
+        <v>1642.6241399999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>22</v>
       </c>
@@ -2369,8 +2470,14 @@
         <f t="shared" si="0"/>
         <v>90.754000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>292.03486400000003</v>
+      </c>
+      <c r="K20">
+        <v>1288.4509559999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>22</v>
       </c>
@@ -2384,8 +2491,14 @@
         <f t="shared" si="0"/>
         <v>73.697999999999993</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>258.97884399999998</v>
+      </c>
+      <c r="K21">
+        <v>450.81090899999998</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" ht="45" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -2398,6 +2511,12 @@
       <c r="G22">
         <f t="shared" si="0"/>
         <v>38.963999999999999</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2411,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2549,7 @@
     <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2438,7 +2557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2565,7 @@
         <v>2997166</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2573,7 @@
         <v>106349209</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="7" t="s">
@@ -2470,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>18</v>
       </c>
@@ -2515,7 +2634,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +2656,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +2678,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>18</v>
       </c>
@@ -2581,7 +2700,7 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>18</v>
       </c>
@@ -2603,32 +2722,38 @@
         <v>668.00499000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="9">
         <v>100</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="9">
         <v>231997</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>231.99700000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>668.00499000000002</v>
+      </c>
+      <c r="J12" s="11">
+        <v>709.21516399999996</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
-      </c>
-      <c r="L12">
+        <v>1377.2201540000001</v>
+      </c>
+      <c r="L12" s="9">
         <v>693.95279900000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="9">
+        <v>693.21203200000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>19</v>
       </c>
@@ -2645,15 +2770,21 @@
       <c r="I13">
         <v>668.00499000000002</v>
       </c>
+      <c r="J13">
+        <v>697.90196400000002</v>
+      </c>
       <c r="K13" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1365.906954</v>
       </c>
       <c r="L13">
         <v>713.58394599999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>722.36800200000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -2670,15 +2801,21 @@
       <c r="I14">
         <v>668.00499000000002</v>
       </c>
+      <c r="J14">
+        <v>690.27996099999996</v>
+      </c>
       <c r="K14" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1358.2849510000001</v>
       </c>
       <c r="L14">
         <v>669.58308199999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>709.29288899999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>19</v>
       </c>
@@ -2695,15 +2832,21 @@
       <c r="I15">
         <v>668.00499000000002</v>
       </c>
+      <c r="J15">
+        <v>680.86791000000005</v>
+      </c>
       <c r="K15" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1348.8729000000001</v>
       </c>
       <c r="L15">
         <v>678.76505899999995</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>826.22408900000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>19</v>
       </c>
@@ -2720,40 +2863,52 @@
       <c r="I16">
         <v>668.00499000000002</v>
       </c>
+      <c r="J16">
+        <v>678.91502400000002</v>
+      </c>
       <c r="K16" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1346.920014</v>
       </c>
       <c r="L16">
         <v>661.39817200000005</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
+      <c r="M16">
+        <v>713.74607100000003</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="9">
         <v>100</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="9">
         <v>237737</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="10">
         <f>G17/1000</f>
         <v>237.73699999999999</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>668.00499000000002</v>
+      </c>
+      <c r="J17" s="11">
+        <v>733.013868</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
-      </c>
-      <c r="L17">
+        <v>1401.0188579999999</v>
+      </c>
+      <c r="L17" s="9">
         <v>711.13109599999996</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="9">
+        <v>719.22612200000003</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>22</v>
       </c>
@@ -2770,15 +2925,21 @@
       <c r="I18">
         <v>668.00499000000002</v>
       </c>
+      <c r="J18">
+        <v>714.29395699999998</v>
+      </c>
       <c r="K18" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1382.298947</v>
       </c>
       <c r="L18">
         <v>698.95195999999999</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>699.226856</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>22</v>
       </c>
@@ -2795,15 +2956,21 @@
       <c r="I19">
         <v>668.00499000000002</v>
       </c>
+      <c r="J19">
+        <v>705.65605200000005</v>
+      </c>
       <c r="K19" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1373.6610420000002</v>
       </c>
       <c r="L19">
         <v>706.68697399999996</v>
       </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>22</v>
       </c>
@@ -2820,15 +2987,21 @@
       <c r="I20">
         <v>668.00499000000002</v>
       </c>
+      <c r="J20">
+        <v>682.56688099999997</v>
+      </c>
       <c r="K20" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1350.5718710000001</v>
       </c>
       <c r="L20">
         <v>694.23413300000004</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>688.10987499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>22</v>
       </c>
@@ -2845,40 +3018,52 @@
       <c r="I21">
         <v>668.00499000000002</v>
       </c>
+      <c r="J21">
+        <v>678.84492899999998</v>
+      </c>
       <c r="K21" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1346.849919</v>
       </c>
       <c r="L21">
         <v>684.23390400000005</v>
       </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="M21">
+        <v>679.634094</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="9">
         <v>100</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="9">
         <v>258691</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="10">
         <f t="shared" si="0"/>
         <v>258.69099999999997</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="9">
         <v>668.00499000000002</v>
+      </c>
+      <c r="J22" s="11">
+        <v>751.34205799999995</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
-      </c>
-      <c r="L22">
+        <v>1419.3470480000001</v>
+      </c>
+      <c r="L22" s="9">
         <v>743.09015299999999</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="9">
+        <v>743.71790899999996</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>20</v>
       </c>
@@ -2895,15 +3080,21 @@
       <c r="I23">
         <v>668.00499000000002</v>
       </c>
+      <c r="J23">
+        <v>714.01119200000005</v>
+      </c>
       <c r="K23" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1382.0161820000001</v>
       </c>
       <c r="L23">
         <v>722.69701999999995</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>619.69089499999995</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>20</v>
       </c>
@@ -2920,15 +3111,21 @@
       <c r="I24">
         <v>668.00499000000002</v>
       </c>
+      <c r="J24">
+        <v>689.67199300000004</v>
+      </c>
       <c r="K24" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1357.6769830000001</v>
       </c>
       <c r="L24">
         <v>695.26290900000004</v>
       </c>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>929.41999399999997</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>20</v>
       </c>
@@ -2945,15 +3142,21 @@
       <c r="I25">
         <v>668.00499000000002</v>
       </c>
+      <c r="J25">
+        <v>672.57595100000003</v>
+      </c>
       <c r="K25" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1340.5809410000002</v>
       </c>
       <c r="L25">
         <v>685.499191</v>
       </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>693.45998799999995</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>20</v>
       </c>
@@ -2970,40 +3173,52 @@
       <c r="I26">
         <v>668.00499000000002</v>
       </c>
+      <c r="J26">
+        <v>644.10114299999998</v>
+      </c>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1312.106133</v>
       </c>
       <c r="L26">
         <v>669.27290000000005</v>
       </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E27" t="s">
+      <c r="M26">
+        <v>676.759005</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="9">
         <v>100</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <v>447628</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="10">
         <f t="shared" si="0"/>
         <v>447.62799999999999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="9">
         <v>668.00499000000002</v>
+      </c>
+      <c r="J27" s="11">
+        <v>936.03897099999995</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
-      </c>
-      <c r="L27">
+        <v>1604.0439609999999</v>
+      </c>
+      <c r="L27" s="9">
         <v>944.73505</v>
       </c>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="9">
+        <v>933.23206900000002</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>24</v>
       </c>
@@ -3020,15 +3235,21 @@
       <c r="I28">
         <v>668.00499000000002</v>
       </c>
+      <c r="J28">
+        <v>848.41585199999997</v>
+      </c>
       <c r="K28" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1516.420842</v>
       </c>
       <c r="L28">
         <v>851.50098800000001</v>
       </c>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>7930.2160739999999</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>24</v>
       </c>
@@ -3045,15 +3266,21 @@
       <c r="I29">
         <v>668.00499000000002</v>
       </c>
+      <c r="J29">
+        <v>726.112843</v>
+      </c>
       <c r="K29" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1394.117833</v>
       </c>
       <c r="L29">
         <v>806.025982</v>
       </c>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>751.02901499999996</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>24</v>
       </c>
@@ -3070,15 +3297,21 @@
       <c r="I30">
         <v>668.00499000000002</v>
       </c>
+      <c r="J30">
+        <v>629.87708999999995</v>
+      </c>
       <c r="K30" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1297.8820799999999</v>
       </c>
       <c r="L30">
         <v>728.60503200000005</v>
       </c>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>550.09102800000005</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>24</v>
       </c>
@@ -3095,12 +3328,18 @@
       <c r="I31">
         <v>668.00499000000002</v>
       </c>
+      <c r="J31">
+        <v>542.27399800000001</v>
+      </c>
       <c r="K31" s="5">
         <f t="shared" si="1"/>
-        <v>668.00499000000002</v>
+        <v>1210.278988</v>
       </c>
       <c r="L31">
         <v>701.40504799999997</v>
+      </c>
+      <c r="M31">
+        <v>554.12221</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="baidu100" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="28">
   <si>
     <t>baidu100_w_sorted_f</t>
   </si>
@@ -206,18 +206,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,15 +545,15 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -726,6 +726,61 @@
       <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>1147.97</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>153.124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>283.28300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>435.637</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>693.44299999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>740.56500000000005</v>
       </c>
     </row>
   </sheetData>
@@ -739,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D16"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,15 +840,15 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
@@ -1019,6 +1074,61 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>833.88900000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>75</v>
+      </c>
+      <c r="G18">
+        <v>1670.41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>2494.9</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>2326.59</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2497.33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1031,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,15 +1187,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1288,6 +1398,61 @@
       </c>
       <c r="H17">
         <v>362.77913999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>213.54499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>255.601</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>319.19</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="G21">
+        <v>345.892</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>596.93399999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,15 +1511,15 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1527,6 +1692,171 @@
       <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>487.66300000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>473.46100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="G17">
+        <v>617.54899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>693.32299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>729.14499999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>804.05700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>506.596</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>723.46699999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>830.95</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="G24">
+        <v>999.30100000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1077.81</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>721.26900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <v>1557.54</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>1816.86</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>2414.2800000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2362.7199999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1586,15 +1916,15 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1758,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,15 +2132,15 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1836,21 +2166,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>100</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>107315</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f>F8/1000</f>
         <v>107.315</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
         <v>426.31506899999999</v>
       </c>
     </row>
@@ -1927,21 +2257,21 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7">
         <v>100</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>107829</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>107.82899999999999</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
         <v>429.038048</v>
       </c>
     </row>
@@ -2018,21 +2348,21 @@
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>100</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>160541</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>160.541</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
         <v>473.78492399999999</v>
       </c>
     </row>
@@ -2121,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2165,15 +2495,15 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -2197,29 +2527,29 @@
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>100</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>63074</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <f>F8/1000</f>
         <v>63.073999999999998</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
         <v>272.40705500000001</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>514.63389400000005</v>
       </c>
     </row>
@@ -2308,24 +2638,24 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="7">
         <v>100</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>63761</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>63.761000000000003</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
         <v>277.49609900000002</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="7">
         <v>893.07808899999998</v>
       </c>
     </row>
@@ -2414,24 +2744,24 @@
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>100</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <v>88693</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f t="shared" si="0"/>
         <v>88.692999999999998</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
         <v>298.52294899999998</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>588.80710599999998</v>
       </c>
     </row>
@@ -2512,7 +2842,7 @@
         <f t="shared" si="0"/>
         <v>38.963999999999999</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K22" t="s">
@@ -2532,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2576,15 +2906,15 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" t="s">
         <v>25</v>
       </c>
@@ -2723,33 +3053,33 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7">
         <v>100</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>231997</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f t="shared" si="0"/>
         <v>231.99700000000001</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>668.00499000000002</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="9">
         <v>709.21516399999996</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="1"/>
         <v>1377.2201540000001</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>693.95279900000003</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>693.21203200000002</v>
       </c>
     </row>
@@ -2878,33 +3208,33 @@
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <v>100</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>237737</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f>G17/1000</f>
         <v>237.73699999999999</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>668.00499000000002</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="9">
         <v>733.013868</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="1"/>
         <v>1401.0188579999999</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="7">
         <v>711.13109599999996</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="7">
         <v>719.22612200000003</v>
       </c>
     </row>
@@ -3033,33 +3363,33 @@
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <v>100</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>258691</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <f t="shared" si="0"/>
         <v>258.69099999999997</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>668.00499000000002</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="9">
         <v>751.34205799999995</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>1419.3470480000001</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="7">
         <v>743.09015299999999</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <v>743.71790899999996</v>
       </c>
     </row>
@@ -3188,33 +3518,33 @@
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="7">
         <v>100</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="7">
         <v>447628</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <f t="shared" si="0"/>
         <v>447.62799999999999</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <v>668.00499000000002</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="9">
         <v>936.03897099999995</v>
       </c>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
         <v>1604.0439609999999</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="7">
         <v>944.73505</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="7">
         <v>933.23206900000002</v>
       </c>
     </row>

--- a/Results/Results/result analysis.xlsx
+++ b/Results/Results/result analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="baidu100" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="hollywood-2009" sheetId="6" r:id="rId6"/>
     <sheet name="roadNet-CA" sheetId="7" r:id="rId7"/>
     <sheet name="soc-orkut" sheetId="8" r:id="rId8"/>
+    <sheet name="rmat20" sheetId="9" r:id="rId9"/>
+    <sheet name="rmat24_new" sheetId="10" r:id="rId10"/>
+    <sheet name="rmat22" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="34">
   <si>
     <t>baidu100_w_sorted_f</t>
   </si>
@@ -112,6 +115,24 @@
     <t xml:space="preserve">0.254154Fewer than 5 vertices visited.
 </t>
   </si>
+  <si>
+    <t>rmat208_G_sorted_ext</t>
+  </si>
+  <si>
+    <t>STEP 1</t>
+  </si>
+  <si>
+    <t>STEP 2</t>
+  </si>
+  <si>
+    <t>SSSP update(in millisec)</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>Total updating SSSP</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -219,6 +246,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +633,7 @@
         <v>135273</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" ref="F9:F17" si="0">E9/1000</f>
+        <f t="shared" ref="F9:F22" si="0">E9/1000</f>
         <v>135.273</v>
       </c>
     </row>
@@ -655,138 +684,796 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
-      <c r="E13">
-        <v>175649</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>175.649</v>
+      <c r="F13">
+        <v>153.124</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>75</v>
       </c>
-      <c r="E14">
-        <v>522944</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>522.94399999999996</v>
+      <c r="F14">
+        <v>283.28300000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>50</v>
       </c>
-      <c r="E15">
-        <v>761570</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>761.57</v>
+      <c r="F15">
+        <v>435.637</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
-      <c r="E16">
-        <v>974741</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>974.74099999999999</v>
+      <c r="F16">
+        <v>693.44299999999998</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>1147970</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>1147.97</v>
+      <c r="F17">
+        <v>740.56500000000005</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
-      <c r="F18">
-        <v>153.124</v>
+      <c r="E18">
+        <v>175649</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>175.649</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>75</v>
       </c>
-      <c r="F19">
-        <v>283.28300000000002</v>
+      <c r="E19">
+        <v>522944</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>522.94399999999996</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
-      <c r="F20">
-        <v>435.637</v>
+      <c r="E20">
+        <v>761570</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>761.57</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>25</v>
       </c>
-      <c r="F21">
-        <v>693.44299999999998</v>
+      <c r="E21">
+        <v>974741</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>974.74099999999999</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>740.56500000000005</v>
+      <c r="E22">
+        <v>1147970</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>1147.97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7">
+        <v>100</v>
+      </c>
+      <c r="G8" s="15">
+        <v>653.18700000000001</v>
+      </c>
+      <c r="H8" s="15">
+        <v>130.13</v>
+      </c>
+      <c r="I8" s="15">
+        <v>10.273</v>
+      </c>
+      <c r="J8" s="15">
+        <f>H8+I8</f>
+        <v>140.40299999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>75</v>
+      </c>
+      <c r="G9">
+        <v>629.36500000000001</v>
+      </c>
+      <c r="H9">
+        <v>137.1</v>
+      </c>
+      <c r="I9">
+        <v>60.978000000000002</v>
+      </c>
+      <c r="J9">
+        <f>H9+I9</f>
+        <v>198.078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>617.12</v>
+      </c>
+      <c r="H10">
+        <v>134.71700000000001</v>
+      </c>
+      <c r="I10">
+        <v>70.760999999999996</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J9:J27" si="0">H10+I10</f>
+        <v>205.47800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>632.80600000000004</v>
+      </c>
+      <c r="H11">
+        <v>133.41499999999999</v>
+      </c>
+      <c r="I11">
+        <v>76.710999999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>210.12599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>629.43499999999995</v>
+      </c>
+      <c r="H12">
+        <v>136.30000000000001</v>
+      </c>
+      <c r="I12">
+        <v>48.226999999999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>184.52700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>803.774</v>
+      </c>
+      <c r="H13">
+        <v>136.19200000000001</v>
+      </c>
+      <c r="I13">
+        <v>28.41</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>164.602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>75</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>814.01700000000005</v>
+      </c>
+      <c r="H18">
+        <v>147.749</v>
+      </c>
+      <c r="I18">
+        <v>40.04</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>187.78899999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="7">
+        <v>100</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>75</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,7 +1484,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +1591,7 @@
         <v>321132</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" ref="G8:G16" si="0">F8/1000</f>
+        <f t="shared" ref="G8:G21" si="0">F8/1000</f>
         <v>321.13200000000001</v>
       </c>
       <c r="H8" s="1">
@@ -975,160 +1662,160 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
-      <c r="F12" s="1">
-        <v>952268</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>952.26800000000003</v>
-      </c>
-      <c r="H12" s="1">
-        <v>355.57413100000002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>409.02304600000002</v>
-      </c>
-      <c r="J12" s="1"/>
+      <c r="G12">
+        <v>833.88900000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>75</v>
       </c>
-      <c r="F13" s="1">
-        <v>2667536</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>2667.5360000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>355.57413100000002</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13">
+        <v>1670.41</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
       </c>
-      <c r="F14" s="1">
-        <v>3760107</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>3760.107</v>
-      </c>
-      <c r="H14" s="1">
-        <v>355.57413100000002</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14">
+        <v>2494.9</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1">
         <v>25</v>
       </c>
-      <c r="F15" s="1">
-        <v>5251455</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>5251.4549999999999</v>
-      </c>
-      <c r="H15" s="1">
-        <v>355.57413100000002</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15">
+        <v>2326.59</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1">
-        <v>5169295</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>5169.2950000000001</v>
-      </c>
-      <c r="H16" s="1">
-        <v>355.57413100000002</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>2497.33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>100</v>
       </c>
-      <c r="G17">
-        <v>833.88900000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>952268</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>952.26800000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>355.57413100000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>409.02304600000002</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>75</v>
       </c>
-      <c r="G18">
-        <v>1670.41</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>2667536</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>2667.5360000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <v>355.57413100000002</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
       </c>
-      <c r="G19">
-        <v>2494.9</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>3760107</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3760.107</v>
+      </c>
+      <c r="H19" s="1">
+        <v>355.57413100000002</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1">
         <v>25</v>
       </c>
-      <c r="G20">
-        <v>2326.59</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>5251455</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>5251.4549999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>355.57413100000002</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>2497.33</v>
-      </c>
+      <c r="F21" s="1">
+        <v>5169295</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>5169.2950000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>355.57413100000002</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1143,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,11 +1914,7 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8">
-        <v>109766</v>
-      </c>
       <c r="G8" s="3">
-        <f>F8/1000</f>
         <v>109.76600000000001</v>
       </c>
       <c r="H8">
@@ -1245,11 +1928,7 @@
       <c r="E9">
         <v>75</v>
       </c>
-      <c r="F9">
-        <v>146236</v>
-      </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G17" si="0">F9/1000</f>
         <v>146.23599999999999</v>
       </c>
       <c r="H9">
@@ -1263,11 +1942,7 @@
       <c r="E10">
         <v>50</v>
       </c>
-      <c r="F10">
-        <v>159922</v>
-      </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
         <v>159.922</v>
       </c>
       <c r="H10">
@@ -1281,11 +1956,7 @@
       <c r="E11">
         <v>25</v>
       </c>
-      <c r="F11">
-        <v>165710</v>
-      </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
         <v>165.71</v>
       </c>
       <c r="H11">
@@ -1299,11 +1970,7 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <v>243807</v>
-      </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
         <v>243.80699999999999</v>
       </c>
       <c r="H12">
@@ -1317,11 +1984,7 @@
       <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13">
-        <v>151429</v>
-      </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
         <v>151.429</v>
       </c>
       <c r="H13">
@@ -1335,11 +1998,7 @@
       <c r="E14">
         <v>75</v>
       </c>
-      <c r="F14">
-        <v>362016</v>
-      </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
         <v>362.01600000000002</v>
       </c>
       <c r="H14">
@@ -1353,11 +2012,7 @@
       <c r="E15">
         <v>50</v>
       </c>
-      <c r="F15">
-        <v>489735</v>
-      </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
         <v>489.73500000000001</v>
       </c>
       <c r="H15">
@@ -1371,11 +2026,7 @@
       <c r="E16">
         <v>25</v>
       </c>
-      <c r="F16">
-        <v>561579</v>
-      </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
         <v>561.57899999999995</v>
       </c>
       <c r="H16">
@@ -1389,11 +2040,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>850421</v>
-      </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
         <v>850.42100000000005</v>
       </c>
       <c r="H17">
@@ -1468,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,6 +3085,61 @@
         <v>406.934977</v>
       </c>
     </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="7">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>176.65700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>207.62799999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>248.96199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>278.46100000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>334.74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="F6:G6"/>
@@ -2451,7 +3153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2862,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,4 +4381,460 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>16789864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>240.87899999999999</v>
+      </c>
+      <c r="G8">
+        <v>54.393000000000001</v>
+      </c>
+      <c r="H8">
+        <v>8.8979999999999997</v>
+      </c>
+      <c r="I8">
+        <v>63.290999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>239.49199999999999</v>
+      </c>
+      <c r="G9">
+        <v>57.267000000000003</v>
+      </c>
+      <c r="H9">
+        <v>17.094000000000001</v>
+      </c>
+      <c r="I9">
+        <v>74.361000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>235.89500000000001</v>
+      </c>
+      <c r="G10">
+        <v>59.264000000000003</v>
+      </c>
+      <c r="H10">
+        <v>22.648</v>
+      </c>
+      <c r="I10">
+        <v>81.912000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>241.773</v>
+      </c>
+      <c r="G11">
+        <v>52.792999999999999</v>
+      </c>
+      <c r="H11">
+        <v>55.956000000000003</v>
+      </c>
+      <c r="I11">
+        <v>108.749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>239.66200000000001</v>
+      </c>
+      <c r="G12">
+        <v>59.161999999999999</v>
+      </c>
+      <c r="H12">
+        <v>83.864000000000004</v>
+      </c>
+      <c r="I12">
+        <v>143.02600000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>309.67399999999998</v>
+      </c>
+      <c r="G13">
+        <v>62.787999999999997</v>
+      </c>
+      <c r="H13">
+        <v>86.447000000000003</v>
+      </c>
+      <c r="I13">
+        <v>149.23500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>310.63299999999998</v>
+      </c>
+      <c r="G14">
+        <v>85.111999999999995</v>
+      </c>
+      <c r="H14">
+        <v>58.484000000000002</v>
+      </c>
+      <c r="I14">
+        <v>143.596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>305.89299999999997</v>
+      </c>
+      <c r="G15">
+        <v>106.188</v>
+      </c>
+      <c r="H15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <v>106.191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>287.375</v>
+      </c>
+      <c r="G16">
+        <v>85.697000000000003</v>
+      </c>
+      <c r="H16">
+        <v>82.908000000000001</v>
+      </c>
+      <c r="I16">
+        <v>168.60499999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>281.584</v>
+      </c>
+      <c r="G17">
+        <v>90.491</v>
+      </c>
+      <c r="H17">
+        <v>94.225999999999999</v>
+      </c>
+      <c r="I17">
+        <v>184.71700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7">
+        <v>100</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>376.904</v>
+      </c>
+      <c r="G19">
+        <v>106.03400000000001</v>
+      </c>
+      <c r="H19">
+        <v>149.517</v>
+      </c>
+      <c r="I19">
+        <v>255.55099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>518.59699999999998</v>
+      </c>
+      <c r="G20">
+        <v>110.855</v>
+      </c>
+      <c r="H20">
+        <v>95.795000000000002</v>
+      </c>
+      <c r="I20">
+        <v>206.65</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>1156.6600000000001</v>
+      </c>
+      <c r="G23">
+        <v>158.92599999999999</v>
+      </c>
+      <c r="H23">
+        <v>200.10300000000001</v>
+      </c>
+      <c r="I23">
+        <v>359.029</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="F24">
+        <v>1069</v>
+      </c>
+      <c r="G24">
+        <v>205.44200000000001</v>
+      </c>
+      <c r="H24">
+        <v>394.77100000000002</v>
+      </c>
+      <c r="I24">
+        <v>600.21299999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>965.23199999999997</v>
+      </c>
+      <c r="G25">
+        <v>344.47199999999998</v>
+      </c>
+      <c r="H25">
+        <v>228.82599999999999</v>
+      </c>
+      <c r="I25">
+        <v>573.298</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>